--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/10_Artvin_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/10_Artvin_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E546AEFF-8C26-490A-B1B8-84316DF8E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{422BC070-FEF9-4269-BCFA-49866E836F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{74C5DCA5-5A90-455C-9220-E6B81941312A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{DCBC40D6-943D-49B1-8682-79A35B6583DC}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -823,15 +823,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FC91EC46-E5C9-4193-A1C3-04BBA58EB688}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{29505AB8-BA24-43E4-8058-A24B0157748D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FA8B94DA-9F37-4466-B097-2A3C2F030669}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CA06ECFB-690E-4155-A717-11FAD045CBF9}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{16E36DD0-FDCB-48C5-BE65-A87BB706F3A9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{AC89889E-87B7-4421-AB94-02ACAEFF7757}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6FCA1EED-9CAE-4983-8F55-7E3CDD1F09F4}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{1BA61B89-FB6F-48B9-B479-05B37CFEC93B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BB8613FD-859F-45AC-99CF-C4C8A31B282D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F40ADCEF-184F-48D6-BB1A-622F530A12C4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BECF4397-4D3A-4A00-B08E-D8F72921E952}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{3562D422-3B31-4668-B2B3-0F73DD78D86D}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{8BCB31F9-6B5E-4F73-AE9A-BD98AE459182}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{4EAFA368-CDDC-4C92-BA1E-A9961455C0B2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{93763F44-5C69-4BA8-A8CF-4A000B291251}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3A6D0593-A873-4F16-BFE4-B39FA6D1185C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{43737E0D-6FA3-4EB4-ABCE-D29D83CC7DCD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{05039719-9C31-422E-A4CA-8D8DFEC498F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C869F3-669C-40E8-A46D-CD6B5CD4B0FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8E5D37-2BF5-425A-B3B5-C7562F3CB3F0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25448FC6-37EB-4E11-8A53-1D2B0569F22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E210804-536C-4B24-B262-5C66087FC6F5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3731,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D34941B-807A-49D4-B2EF-1830EB7158FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A758D5A-9BC7-4234-8C24-334CF60B9905}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5006,7 +5006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766C3735-5B4A-40E2-B741-2480A146C4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC1AE26-8EF4-4CD2-AB3A-75E967C00433}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6281,7 +6281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D28C80-69D5-4E91-A01B-4108D27C2E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F311D2A-DD96-4BD5-8914-837DC2E97BD9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7550,7 +7550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6159412-C255-4164-9713-C83853498B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D2334-9701-4F7F-960B-D71F7D7CFB7B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
